--- a/DOM_Banner/output/dept_banner/Sharad Khurana_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sharad Khurana_2022.xlsx
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W72650883", "https://openalex.org/W4238372476", "https://openalex.org/W2037863335", "https://openalex.org/W2587050170", "https://openalex.org/W1980656001", "https://openalex.org/W1984329783", "https://openalex.org/W3147111273", "https://openalex.org/W2737196510", "https://openalex.org/W75102634", "https://openalex.org/W2385923267")</t>
+          <t>c("https://openalex.org/W645930773", "https://openalex.org/W4250397071", "https://openalex.org/W2991320778", "https://openalex.org/W1999832612", "https://openalex.org/W3011268210", "https://openalex.org/W3024178724", "https://openalex.org/W4311588896", "https://openalex.org/W4381594543", "https://openalex.org/W2238242969", "https://openalex.org/W4387955394")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sharad Khurana_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sharad Khurana_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematology/Oncology University of Arizona College of Medicine  Tucson AZ; Division of Transplant Surgery Vanderbilt University  Nashville TN; Division of Hematology/Oncology Cleveland Clinic  Cleveland OH; Division of Hematology/Oncology University of Wisconsin School of Medicine &amp;amp; Public Health  Madison WI; Division of Hematology/Oncology University of Wisconsin School of Medicine &amp;amp; Public Health  Madison WI; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA; Division of Hematologic Malignancies and Cellular Therapeutics, University of Kansas Medical Center, Kansas City, Kansas, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206363197</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Impact of COVID‐19 in hematopoietic stem cell transplant recipients: A systematic review and meta‐analysis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Transplant Infectious Disease</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/tid.13792</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35030267</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/tid.13792</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pediatrics, University of Arizona, Tucson, AZ, USA; Department of Immunobiology, University of Arizona, Tucson, AZ, USA; Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Pathology, University of Arizona, Tucson, AZ, USA; The University of Arizona Cancer Center, Tucson, AZ, USA; Banner University Medical Center, Tucson, AZ, USA. Electronic address: ekatsani@arizona.edu.; Banner University Medical Center, Tucson, Arizona; Department of Radiation Oncology, University of Arizona, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Department of Pediatrics, University of Arizona, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Department of Medicine, University of Arizona, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Department of Medicine, University of Arizona, Tucson, Arizona; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, Arizona; Department of Pediatrics, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224231087</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Feasibility and Efficacy of Partially Replacing Post-Transplantation Cyclophosphamide with Bendamustine in Pediatric and Young Adult Patients Undergoing Haploidentical Bone Marrow Transplantation</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtct.2022.04.015</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35460929</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtct.2022.04.015</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1University of Arizona, Tucson, AZ; 1University of Arizona, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 4Departments of Pediatrics, University of Arizona, Tucson, AZ; 5University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310106653</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Anti CD19 CAR-T Cell Therapy Can Clear Minimal Residual Disease in Bone Marrow of Patients with Relapsed or Refractory B Cell Non-Hodgkin's Lymphomas</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170620</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170620</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1University of Arizona Department of Medicine, Tucson,; 2University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4Department of Hematology, University of Arizona, Tucson, AZ; 5Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 6University of Arizona Cancer Center, University of Arizona College of Medicine, Tucson, AZ; 7Departments of Pediatrics, University of Arizona, Tucson, AZ; 8University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310108057</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome (ICANS) after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
